--- a/Rana_muscosa_PF_isolates_metadata.xlsx
+++ b/Rana_muscosa_PF_isolates_metadata.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patty\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patty\OneDrive\Documents\GitHub\Pseudo_fluor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAD4959-B5F9-4C93-A30D-C5401C31F693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD6A703-C44C-4EA2-9131-15877E6D2A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="12590" xr2:uid="{4A112F1B-0073-4264-ADA9-45CE1CFC5DE2}"/>
+    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" activeTab="1" xr2:uid="{4A112F1B-0073-4264-ADA9-45CE1CFC5DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="246">
   <si>
     <t>Isolate.name</t>
   </si>
@@ -711,6 +712,69 @@
   </si>
   <si>
     <t>migulae</t>
+  </si>
+  <si>
+    <t>&gt;630A</t>
+  </si>
+  <si>
+    <t>&gt;631B</t>
+  </si>
+  <si>
+    <t>&gt;632B</t>
+  </si>
+  <si>
+    <t>&gt;633A</t>
+  </si>
+  <si>
+    <t>&gt;638A1</t>
+  </si>
+  <si>
+    <t>&gt;642A</t>
+  </si>
+  <si>
+    <t>&gt;643B</t>
+  </si>
+  <si>
+    <t>&gt;647D</t>
+  </si>
+  <si>
+    <t>&gt;649D1</t>
+  </si>
+  <si>
+    <t>&gt;CP10A</t>
+  </si>
+  <si>
+    <t>&gt;CP12E</t>
+  </si>
+  <si>
+    <t>&gt;CP13A</t>
+  </si>
+  <si>
+    <t>&gt;CP15C</t>
+  </si>
+  <si>
+    <t>&gt;CP17D</t>
+  </si>
+  <si>
+    <t>&gt;CP19F2</t>
+  </si>
+  <si>
+    <t>&gt;CP20G1</t>
+  </si>
+  <si>
+    <t>&gt;CP2A</t>
+  </si>
+  <si>
+    <t>&gt;CP3F2</t>
+  </si>
+  <si>
+    <t>&gt;CP6A</t>
+  </si>
+  <si>
+    <t>&gt;CP8C</t>
+  </si>
+  <si>
+    <t>&gt;CP5A</t>
   </si>
 </sst>
 </file>
@@ -775,10 +839,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,9 +861,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -837,7 +901,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -943,7 +1007,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1085,7 +1149,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1095,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1755A27-A8BF-4155-BCAC-A5422097BF60}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4221,4 +4285,195 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D831167C-5A3A-461B-A1E8-78C39D0AE8EC}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>